--- a/src/data/marriage-test.xlsx
+++ b/src/data/marriage-test.xlsx
@@ -14,90 +14,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="33">
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>name 1</t>
-  </si>
-  <si>
-    <t>name 2</t>
-  </si>
-  <si>
-    <t>age 1</t>
-  </si>
-  <si>
-    <t>age 2</t>
-  </si>
-  <si>
-    <t>father 1</t>
-  </si>
-  <si>
-    <t>mother 1</t>
-  </si>
-  <si>
-    <t>father 2</t>
-  </si>
-  <si>
-    <t>mother 2</t>
-  </si>
-  <si>
-    <t>nationality 1</t>
-  </si>
-  <si>
-    <t>nationality 2</t>
-  </si>
-  <si>
-    <t>residence 1</t>
-  </si>
-  <si>
-    <t>residence 2</t>
-  </si>
-  <si>
-    <t>civilstatus 1</t>
-  </si>
-  <si>
-    <t>civilstatus 2</t>
-  </si>
-  <si>
-    <t>witness 1</t>
-  </si>
-  <si>
-    <t>witness 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="35">
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Name 1</t>
+  </si>
+  <si>
+    <t>Name 2</t>
+  </si>
+  <si>
+    <t>Age 1</t>
+  </si>
+  <si>
+    <t>Age 2</t>
+  </si>
+  <si>
+    <t>Father 1</t>
+  </si>
+  <si>
+    <t>Mother 1</t>
+  </si>
+  <si>
+    <t>Father 2</t>
+  </si>
+  <si>
+    <t>Mother 2</t>
+  </si>
+  <si>
+    <t>Nationality 1</t>
+  </si>
+  <si>
+    <t>Nationality 2</t>
+  </si>
+  <si>
+    <t>Residence 1</t>
+  </si>
+  <si>
+    <t>Residence 2</t>
+  </si>
+  <si>
+    <t>Civil Status 1</t>
+  </si>
+  <si>
+    <t>Civil Status 2</t>
+  </si>
+  <si>
+    <t>Witness 1</t>
+  </si>
+  <si>
+    <t>Witness 2</t>
+  </si>
+  <si>
+    <t>Place of Marriage</t>
+  </si>
+  <si>
+    <t>Priest</t>
+  </si>
+  <si>
+    <t>2017-05-24</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>residence</t>
+  </si>
+  <si>
+    <t>civilstatus</t>
+  </si>
+  <si>
+    <t>witness</t>
   </si>
   <si>
     <t>place of burial</t>
   </si>
   <si>
     <t>priest</t>
-  </si>
-  <si>
-    <t>2017-05-24</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>father</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>residence</t>
-  </si>
-  <si>
-    <t>civilstatus</t>
-  </si>
-  <si>
-    <t>witness</t>
   </si>
   <si>
     <t>2017-05-25</t>
@@ -121,9 +127,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -134,25 +140,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,13 +200,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -188,9 +230,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,14 +248,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,65 +283,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -287,43 +293,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,13 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,121 +449,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,26 +487,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,21 +522,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,11 +552,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,153 +575,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,17 +1065,16 @@
   <sheetPr/>
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T$1:T$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="10.25" customWidth="1"/>
+    <col min="11" max="12" width="12.25" customWidth="1"/>
     <col min="13" max="14" width="11.5" customWidth="1"/>
     <col min="15" max="16" width="11.75" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="19" max="19" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1190,10 +1195,10 @@
         <v>27</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1201,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>21</v>
@@ -1252,10 +1257,10 @@
         <v>27</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1263,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -1314,10 +1319,10 @@
         <v>27</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1325,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -1376,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1387,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
@@ -1438,10 +1443,10 @@
         <v>27</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1449,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -1500,10 +1505,10 @@
         <v>27</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/marriage-test.xlsx
+++ b/src/data/marriage-test.xlsx
@@ -127,9 +127,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -137,6 +137,119 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,139 +261,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -293,43 +293,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,139 +461,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,32 +496,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,6 +531,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -567,20 +570,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,142 +589,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,8 +1065,8 @@
   <sheetPr/>
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>33</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>34</v>
